--- a/biology/Médecine/Strie_médullaire/Strie_médullaire.xlsx
+++ b/biology/Médecine/Strie_médullaire/Strie_médullaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strie_m%C3%A9dullaire</t>
+          <t>Strie_médullaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La strie médullaire, partie du diencéphale, est un fin faisceau de fibres, qui longe la partie supérieure de la face interne du thalamus et se poursuit postérieurement par l'habenula. Le toit du troisième ventricule (représenté par la toile choroïdienne du troisième ventricule) est tendu entre les deux stries médullaires, plus précisément entre les deux taenia thalami (en).
  Portail de l’anatomie   Portail de la médecine   Portail des neurosciences                   </t>
